--- a/Data/TestRun.xlsx
+++ b/Data/TestRun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pujaarora\eclipse-workspace\Puja_3164915_RedBus\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6DA54E-428A-4A16-978C-0967BC033CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602EC1DE-3D36-4DFE-837E-89FF56D5D76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{80A3DC2E-1E53-4497-9AC6-1005EFFF4EEC}"/>
   </bookViews>
@@ -34,12 +34,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>RunChoice y or n</t>
+  </si>
   <si>
     <t>bookSeat_loggedInRedBusAccount</t>
   </si>
   <si>
-    <t>y</t>
+    <t>busHireOptionsNavigationTest</t>
+  </si>
+  <si>
+    <t>employeeTransportTest_Invalid_BlankFields</t>
+  </si>
+  <si>
+    <t>employeeTransportTest_invalidEmailAndPhn</t>
+  </si>
+  <si>
+    <t>cancelTicket_validtin_validemail</t>
+  </si>
+  <si>
+    <t>cancelTicket_invalidtin_invalidemail</t>
+  </si>
+  <si>
+    <t>cancelTicket_invalidtin_validemail</t>
+  </si>
+  <si>
+    <t>cancelTicket_validtin_invalidemail</t>
+  </si>
+  <si>
+    <t>ChangeTravelDate_validtin_validemail</t>
+  </si>
+  <si>
+    <t>ChangeTravelDate_invalidtin_invalidemail</t>
+  </si>
+  <si>
+    <t>ChangeTravelDate_invalidtin_validemail</t>
+  </si>
+  <si>
+    <t>ChangeTravelDate_validtin_invalidemail</t>
+  </si>
+  <si>
+    <t>emailSmsTicket_validtin_validemail</t>
+  </si>
+  <si>
+    <t>emailSmsTicket_invalidtin_invalidemail</t>
+  </si>
+  <si>
+    <t>emailSmsTicket_invalidtin_validemail</t>
+  </si>
+  <si>
+    <t>emailSmsTicket_validtin_invalidemail</t>
+  </si>
+  <si>
+    <t>helpTypeNavigationTest</t>
+  </si>
+  <si>
+    <t>help_viewAllChatsNavigationTest</t>
+  </si>
+  <si>
+    <t>loginWithGoogleTest</t>
+  </si>
+  <si>
+    <t>loginWithPhnNoValidTest</t>
+  </si>
+  <si>
+    <t>loginWithPhnNoInValidTest</t>
+  </si>
+  <si>
+    <t>loginWithFacebookTest</t>
+  </si>
+  <si>
+    <t>searchtest</t>
+  </si>
+  <si>
+    <t>showMyTicket_validtin_validemail</t>
+  </si>
+  <si>
+    <t>showMyTicket_invalidtin_invalidemail</t>
+  </si>
+  <si>
+    <t>showMyTicket_invalidtin_validemail</t>
+  </si>
+  <si>
+    <t>showMyTicket_validtin_invalidemail</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -392,23 +485,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643DCD0D-9723-4D6D-A982-06450ED45A00}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="68.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.6328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.90625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TestRun.xlsx
+++ b/Data/TestRun.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="33">
   <si>
     <t>y</t>
   </si>
